--- a/claims_db/phclaims/ref/tables_data/ref.claim_concept.xlsx
+++ b/claims_db/phclaims/ref/tables_data/ref.claim_concept.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>concept_id</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>pc_visit_id</t>
+  </si>
+  <si>
+    <t>inpatient_id</t>
+  </si>
+  <si>
+    <t>Acute Inpatient Stays (HEDIS Definition)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,9 +471,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
